--- a/data/metadata/Informe-05-0709-070954-A-TC.xlsx
+++ b/data/metadata/Informe-05-0709-070954-A-TC.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>sector-codigo</t>
   </si>
@@ -46,7 +46,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:temporalidad</t>
+    <t>iaest-measure:temporalidad</t>
   </si>
   <si>
     <t>iaest-measure:n-accidentes</t>
@@ -61,37 +61,31 @@
     <t>iaest-measure:orden</t>
   </si>
   <si>
-    <t>iaest-dimension:sector-descripcion</t>
+    <t>iaest-measure:sector-descripcion</t>
   </si>
   <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
+    <t>medida</t>
+  </si>
+  <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
+    <t>xsd:int</t>
   </si>
   <si>
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-temporalidad.xlsx</t>
-  </si>
-  <si>
     <t>mapping-ccaa-nombre.xlsx</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sector-descripcion.xlsx</t>
   </si>
 </sst>
 </file>
@@ -223,28 +217,28 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -255,19 +249,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
@@ -280,17 +274,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-0709-070954-A-TC.xlsx
+++ b/data/metadata/Informe-05-0709-070954-A-TC.xlsx
@@ -11,62 +11,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
-  <si>
-    <t>sector-codigo</t>
-  </si>
-  <si>
-    <t>temporalidad</t>
-  </si>
-  <si>
-    <t>n-accidentes</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>orden</t>
-  </si>
-  <si>
-    <t>sector-descripcion</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+  <si>
+    <t>Sector Código</t>
+  </si>
+  <si>
+    <t>Comarca Código</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>CCAA Código</t>
+  </si>
+  <si>
+    <t>CCAA Nombre</t>
+  </si>
+  <si>
+    <t>Sector Descripción</t>
+  </si>
+  <si>
+    <t>Nº Accidentes</t>
+  </si>
+  <si>
+    <t>Temporalidad</t>
+  </si>
+  <si>
+    <t>Comarca Nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:orden</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:sector-descripcion</t>
+  </si>
+  <si>
+    <t>iaest-measure:n-accidentes</t>
+  </si>
+  <si>
     <t>iaest-measure:temporalidad</t>
   </si>
   <si>
-    <t>iaest-measure:n-accidentes</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:orden</t>
-  </si>
-  <si>
-    <t>iaest-measure:sector-descripcion</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
@@ -76,13 +73,16 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -182,31 +182,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -214,31 +214,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -246,38 +246,35 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/metadata/Informe-05-0709-070954-A-TC.xlsx
+++ b/data/metadata/Informe-05-0709-070954-A-TC.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Sector Código</t>
   </si>
@@ -43,6 +43,36 @@
     <t>Año</t>
   </si>
   <si>
+    <t>sector-codigo</t>
+  </si>
+  <si>
+    <t>comarca-codigo</t>
+  </si>
+  <si>
+    <t>orden</t>
+  </si>
+  <si>
+    <t>ccaa-codigo</t>
+  </si>
+  <si>
+    <t>ccaa-nombre</t>
+  </si>
+  <si>
+    <t>sector-descripcion</t>
+  </si>
+  <si>
+    <t>n-accidentes</t>
+  </si>
+  <si>
+    <t>temporalidad</t>
+  </si>
+  <si>
+    <t>comarca-nombre</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
@@ -83,9 +113,6 @@
   </si>
   <si>
     <t>xsd:date</t>
-  </si>
-  <si>
-    <t>mapping-ano.xlsx</t>
   </si>
 </sst>
 </file>
@@ -182,100 +209,127 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
